--- a/JSHG.xlsx
+++ b/JSHG.xlsx
@@ -74,7 +74,7 @@
     <t>Equity income in investee</t>
   </si>
   <si>
-    <t>Extraordinary Gain</t>
+    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -1425,7 +1425,9 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
